--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H2">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I2">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J2">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>96.02227953368801</v>
+        <v>21.36476376412</v>
       </c>
       <c r="R2">
-        <v>864.2005158031922</v>
+        <v>192.28287387708</v>
       </c>
       <c r="S2">
-        <v>0.1161201136755684</v>
+        <v>0.03092328041704627</v>
       </c>
       <c r="T2">
-        <v>0.1161201136755685</v>
+        <v>0.03092328041704627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H3">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I3">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J3">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>163.012863862931</v>
+        <v>203.544527651836</v>
       </c>
       <c r="R3">
-        <v>1467.115774766379</v>
+        <v>1831.900748866524</v>
       </c>
       <c r="S3">
-        <v>0.1971320861603012</v>
+        <v>0.2946095999668176</v>
       </c>
       <c r="T3">
-        <v>0.1971320861603012</v>
+        <v>0.2946095999668176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.550961</v>
+        <v>5.682516</v>
       </c>
       <c r="H4">
-        <v>13.652883</v>
+        <v>17.047548</v>
       </c>
       <c r="I4">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991918</v>
       </c>
       <c r="J4">
-        <v>0.3980483771262702</v>
+        <v>0.4522589164991919</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>70.11982662983</v>
+        <v>87.55448283147999</v>
       </c>
       <c r="R4">
-        <v>631.0784396684701</v>
+        <v>787.99034548332</v>
       </c>
       <c r="S4">
-        <v>0.08479617729040057</v>
+        <v>0.1267260361153279</v>
       </c>
       <c r="T4">
-        <v>0.08479617729040058</v>
+        <v>0.1267260361153279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>16.347735</v>
       </c>
       <c r="I5">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J5">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>114.97548026396</v>
+        <v>20.48772623215</v>
       </c>
       <c r="R5">
-        <v>1034.77932237564</v>
+        <v>184.38953608935</v>
       </c>
       <c r="S5">
-        <v>0.1390402925549181</v>
+        <v>0.0296538595221179</v>
       </c>
       <c r="T5">
-        <v>0.1390402925549182</v>
+        <v>0.0296538595221179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>16.347735</v>
       </c>
       <c r="I6">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J6">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>195.188891607895</v>
@@ -818,10 +818,10 @@
         <v>1756.700024471055</v>
       </c>
       <c r="S6">
-        <v>0.236042680842264</v>
+        <v>0.28251568311839</v>
       </c>
       <c r="T6">
-        <v>0.236042680842264</v>
+        <v>0.28251568311839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>16.347735</v>
       </c>
       <c r="I7">
-        <v>0.4766165055717775</v>
+        <v>0.4336933920535619</v>
       </c>
       <c r="J7">
-        <v>0.4766165055717775</v>
+        <v>0.433693392053562</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>83.96031402235</v>
@@ -880,10 +880,10 @@
         <v>755.64282620115</v>
       </c>
       <c r="S7">
-        <v>0.1015335321745954</v>
+        <v>0.121523849413054</v>
       </c>
       <c r="T7">
-        <v>0.1015335321745954</v>
+        <v>0.121523849413054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.298939</v>
       </c>
       <c r="I8">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J8">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>30.23492711072622</v>
+        <v>5.387626195354444</v>
       </c>
       <c r="R8">
-        <v>272.114343996536</v>
+        <v>48.48863575818999</v>
       </c>
       <c r="S8">
-        <v>0.03656321418445719</v>
+        <v>0.00779803032041772</v>
       </c>
       <c r="T8">
-        <v>0.0365632141844572</v>
+        <v>0.007798030320417721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.298939</v>
       </c>
       <c r="I9">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J9">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>51.32852584776744</v>
@@ -1004,10 +1004,10 @@
         <v>461.956732629907</v>
       </c>
       <c r="S9">
-        <v>0.06207178464401101</v>
+        <v>0.07429271934425707</v>
       </c>
       <c r="T9">
-        <v>0.06207178464401102</v>
+        <v>0.07429271934425707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.298939</v>
       </c>
       <c r="I10">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="J10">
-        <v>0.1253351173019523</v>
+        <v>0.1140476914472462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>22.07891603350111</v>
@@ -1066,10 +1066,10 @@
         <v>198.71024430151</v>
       </c>
       <c r="S10">
-        <v>0.02670011847348412</v>
+        <v>0.0319569417825714</v>
       </c>
       <c r="T10">
-        <v>0.02670011847348412</v>
+        <v>0.0319569417825714</v>
       </c>
     </row>
   </sheetData>
